--- a/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>餐點名</t>
   </si>
@@ -25,319 +25,380 @@
     <t>信心水平</t>
   </si>
   <si>
+    <t>黑胡椒烤肉飯 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>烤肉乾麵(55$.)</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯 張君雅 青菜 小菜 羊肉(55$.)</t>
+  </si>
+  <si>
+    <t>蒜泥白肉 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>紅燒肉飯 二副菜(40$.)</t>
+  </si>
+  <si>
+    <t>焗烤白醬麵 卡拉雞(55$.)</t>
+  </si>
+  <si>
+    <t>牛肉麵(55$.)</t>
+  </si>
+  <si>
+    <t>味噌湯餃(40$.)</t>
+  </si>
+  <si>
+    <t>牛肉湯麵(40$.)</t>
+  </si>
+  <si>
+    <t>粄條乾 滷蛋 小菜(40$.)</t>
+  </si>
+  <si>
+    <t>味噌拉麵 滷蛋(40$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯 麵 青菜 小菜(40$.)</t>
+  </si>
+  <si>
+    <t>味噌拉麵 滷蛋 豚骨肉(55$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯 麵 青菜 小菜 肉片(55$.)</t>
+  </si>
+  <si>
+    <t>咖哩豬飯(40$.)</t>
+  </si>
+  <si>
+    <t>焗烤培根飯 雞排(55$.)</t>
+  </si>
+  <si>
+    <t>牛肉燴飯(55$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯小火鍋(55$.)</t>
+  </si>
+  <si>
+    <t>番茄湯麵(40$.)</t>
+  </si>
+  <si>
+    <t>蔥抓餅 蛋 卡拉雞(40$.)</t>
+  </si>
+  <si>
+    <t>炸雞腿 香腸 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>起司豬排 雞塊 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>卡拉雞 香腸 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>蒲燒魚 薯餅 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>香腸炒飯(40$.)</t>
+  </si>
+  <si>
+    <t>冰糖焢肉 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>鹹酥雞飯(40$.)</t>
+  </si>
+  <si>
+    <t>香腸炒飯 雞腿(55$.)</t>
+  </si>
+  <si>
+    <t>焗烤培根麵 雞排(55$.)</t>
+  </si>
+  <si>
+    <t>鐵路豬排 滷肉 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>香酥蝦排 薯餅 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>番茄湯麵 小菜 雞腿(55$.)</t>
+  </si>
+  <si>
+    <t>泰式打拋豬 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>蔥抓餅 蛋 雞排(40$.)</t>
+  </si>
+  <si>
+    <t>焗烤茄汁飯 起司豬排(55$.)</t>
+  </si>
+  <si>
+    <t>柳葉魚飯 二副菜(40$.)</t>
+  </si>
+  <si>
+    <t>鳳梨炒飯(40$.)</t>
+  </si>
+  <si>
+    <t>糖醋雞丁飯 二副菜(40$.)</t>
+  </si>
+  <si>
+    <t>蝦排 柳葉魚 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>香酥無骨雞排 雞塊 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>沙茶羊羹麵(55$.)</t>
+  </si>
+  <si>
+    <t>烤肉飯 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>鳳梨炒飯 豬排(55$.)</t>
+  </si>
+  <si>
+    <t>焗烤茄汁麵 起司豬排(55$.)</t>
+  </si>
+  <si>
+    <t>香酥雞腿 雞塊 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>貢丸豚骨湯麵(55$.)</t>
+  </si>
+  <si>
+    <t>日式魚排 雞絲 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯(55$.)</t>
+  </si>
+  <si>
+    <t>羹湯麵(40$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯 張君雅 青菜 金針菇 羊肉(55$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯 麵 青菜 金針菇 肉片(55$.)</t>
+  </si>
+  <si>
+    <t>玉米濃湯麵 蛋 雞腿(55$.)</t>
+  </si>
+  <si>
+    <t>牛肉粥(55$.)</t>
+  </si>
+  <si>
+    <t>蔥抓餅 蛋 薯餅 玉米濃湯(40$.)</t>
+  </si>
+  <si>
+    <t>鐵路豬排 雞塊 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>三杯雞飯 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯(40$.)</t>
+  </si>
+  <si>
+    <t>玉米濃湯餃(40$.)</t>
+  </si>
+  <si>
+    <t>味噌拉麵 蛋 豚骨(55$.)</t>
+  </si>
+  <si>
+    <t>照燒雞腿 三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵 蛋 青菜(40$.)</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵 蛋 青菜(40$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅 豬血 臭豆腐 肉片(55$.)</t>
+  </si>
+  <si>
+    <t>粄條乾 蛋 青菜(40$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯麵 豬血 臭豆腐 青菜(40$.)</t>
+  </si>
+  <si>
+    <t>味噌湯麵 蛋 丸子 青菜(40$.)</t>
+  </si>
+  <si>
+    <t>玉米濃湯麵(40$.)</t>
+  </si>
+  <si>
+    <t>3~3</t>
+  </si>
+  <si>
+    <t>4~4</t>
+  </si>
+  <si>
+    <t>5~5</t>
+  </si>
+  <si>
+    <t>1~1</t>
+  </si>
+  <si>
+    <t>2~2</t>
+  </si>
+  <si>
+    <t>0~0</t>
+  </si>
+  <si>
     <t>肉羹湯麵(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>焗烤白醬飯 卡拉雞(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛋包飯 豬排(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>韓式拌飯(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛋包飯(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日式魚排 雞塊 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔥抓餅 蛋 豬排(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魯肉飯 二副菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香酥雞排 雞塊 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紅燒牛肉飯 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔥油雞飯 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>煎餃(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡拉雞 雞塊 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起司豬排 紅燒肉 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蜜汁雞腿 香腸 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雞肉絲飯 二副菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原味小火鍋(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>張君雅泡乾麵 魯蛋 小菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香煎無骨腿排 三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台南擔仔麵(湯) 魯蛋 小菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台南擔仔麵(乾) 魯蛋 小菜(40$.)</t>
-  </si>
-  <si>
-    <t>黑胡椒烤肉飯 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>烤肉乾麵(55$.)</t>
-  </si>
-  <si>
-    <t>黑胡椒丼飯 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯 張君雅 青菜 小菜 羊肉(55$.)</t>
-  </si>
-  <si>
-    <t>蒜泥白肉 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>紅燒肉飯 二副菜(40$.)</t>
-  </si>
-  <si>
-    <t>焗烤白醬麵 卡拉雞(55$.)</t>
-  </si>
-  <si>
-    <t>牛肉麵(55$.)</t>
-  </si>
-  <si>
-    <t>味噌湯餃(40$.)</t>
-  </si>
-  <si>
-    <t>牛肉湯麵(40$.)</t>
-  </si>
-  <si>
-    <t>粄條乾 滷蛋 小菜(40$.)</t>
-  </si>
-  <si>
-    <t>味噌拉麵 滷蛋(40$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯 麵 青菜 小菜(40$.)</t>
-  </si>
-  <si>
-    <t>味噌拉麵 滷蛋 豚骨肉(55$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯 麵 青菜 小菜 肉片(55$.)</t>
-  </si>
-  <si>
-    <t>咖哩豬飯(40$.)</t>
-  </si>
-  <si>
-    <t>焗烤培根飯 雞排(55$.)</t>
-  </si>
-  <si>
-    <t>牛肉燴飯(55$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯小火鍋(55$.)</t>
-  </si>
-  <si>
-    <t>番茄湯麵(40$.)</t>
-  </si>
-  <si>
-    <t>蔥抓餅 蛋 卡拉雞(40$.)</t>
-  </si>
-  <si>
-    <t>炸雞腿 香腸 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>起司豬排 雞塊 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>卡拉雞 香腸 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>蒲燒魚 薯餅 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>香腸炒飯(40$.)</t>
-  </si>
-  <si>
-    <t>冰糖焢肉 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>香煎無骨雞腿排 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>鹹酥雞飯(40$.)</t>
-  </si>
-  <si>
-    <t>香腸炒飯 雞腿(55$.)</t>
-  </si>
-  <si>
-    <t>焗烤培根麵 雞排(55$.)</t>
-  </si>
-  <si>
-    <t>鐵路豬排 滷肉 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>香酥蝦排 薯餅 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>番茄湯麵 小菜 雞腿(55$.)</t>
-  </si>
-  <si>
-    <t>泰式打拋豬 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>蔥抓餅 蛋 雞排(40$.)</t>
-  </si>
-  <si>
-    <t>焗烤茄汁飯 起司豬排(55$.)</t>
-  </si>
-  <si>
-    <t>柳葉魚飯 二副菜(40$.)</t>
-  </si>
-  <si>
-    <t>鳳梨炒飯(40$.)</t>
-  </si>
-  <si>
-    <t>糖醋雞丁飯 二副菜(40$.)</t>
-  </si>
-  <si>
-    <t>蝦排 柳葉魚 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>香酥無骨雞排 雞塊 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>沙茶羊羹麵(55$.)</t>
-  </si>
-  <si>
-    <t>烤肉飯 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>鳳梨炒飯 豬排(55$.)</t>
-  </si>
-  <si>
-    <t>焗烤茄汁麵 起司豬排(55$.)</t>
-  </si>
-  <si>
-    <t>香酥雞腿 雞塊 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>貢丸豚骨湯麵(55$.)</t>
-  </si>
-  <si>
-    <t>日式魚排 雞絲 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>黑胡椒丼飯(55$.)</t>
-  </si>
-  <si>
-    <t>羹湯麵(40$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯 張君雅 青菜 金針菇 羊肉(55$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯 麵 青菜 金針菇 肉片(55$.)</t>
-  </si>
-  <si>
-    <t>玉米濃湯麵 蛋 雞腿(55$.)</t>
-  </si>
-  <si>
-    <t>牛肉粥(55$.)</t>
-  </si>
-  <si>
-    <t>蔥抓餅 蛋 薯餅 玉米濃湯(40$.)</t>
-  </si>
-  <si>
-    <t>鐵路豬排 雞塊 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>三杯雞飯 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>熱狗蛋炒飯(40$.)</t>
-  </si>
-  <si>
-    <t>玉米濃湯餃(40$.)</t>
-  </si>
-  <si>
-    <t>味噌拉麵 蛋 豚骨(55$.)</t>
-  </si>
-  <si>
-    <t>照燒雞腿 三副菜(55$.)</t>
-  </si>
-  <si>
-    <t>張君雅泡乾麵 蛋 青菜(40$.)</t>
-  </si>
-  <si>
-    <t>台南擔仔乾麵 蛋 青菜(40$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯張君雅 豬血 臭豆腐 肉片(55$.)</t>
-  </si>
-  <si>
-    <t>粄條乾 蛋 青菜(40$.)</t>
-  </si>
-  <si>
-    <t>麻辣湯麵 豬血 臭豆腐 青菜(40$.)</t>
-  </si>
-  <si>
-    <t>味噌湯麵 蛋 丸子 青菜(40$.)</t>
-  </si>
-  <si>
-    <t>玉米濃湯麵(40$.)</t>
-  </si>
-  <si>
-    <t>3~3</t>
-  </si>
-  <si>
-    <t>7~7</t>
-  </si>
-  <si>
-    <t>12~12</t>
-  </si>
-  <si>
-    <t>18~18</t>
-  </si>
-  <si>
-    <t>4~4</t>
-  </si>
-  <si>
-    <t>5~5</t>
-  </si>
-  <si>
-    <t>1~1</t>
-  </si>
-  <si>
-    <t>8~8</t>
-  </si>
-  <si>
-    <t>2~2</t>
-  </si>
-  <si>
-    <t>6~6</t>
-  </si>
-  <si>
-    <t>0~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,12 +736,12 @@
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,997 +752,999 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C11" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C12" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
       </c>
       <c r="C13" s="1">
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1">
         <v>0.31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1">
         <v>0.52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1">
         <v>0.64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1">
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
         <v>0.53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>0.49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1">
         <v>0.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1">
         <v>0.41</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1">
         <v>0.64</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1">
         <v>0.67</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1">
         <v>0.48</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1">
         <v>0.37</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C67" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C70" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1">
         <v>0.46</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>99</v>
       </c>
       <c r="C74" s="1">
         <v>0.54</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C77" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1">
         <v>0.36</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1">
         <v>0.87</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1">
         <v>0.92</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C87" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C88" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C89" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="159">
   <si>
     <t>餐點名</t>
   </si>
@@ -130,9 +130,6 @@
     <t>香酥雞排 雞塊 三副菜(55$.)</t>
   </si>
   <si>
-    <t>韓式拌飯(55$.)</t>
-  </si>
-  <si>
     <t>煎餃(40$.)</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>原味小火鍋(55$.)</t>
   </si>
   <si>
-    <t>焗烤白醬飯 卡拉雞(55$.)</t>
-  </si>
-  <si>
     <t>煎餃 芥菜丸子湯(40$.)</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>台南擔仔湯麵 蛋 小菜(40$.)</t>
   </si>
   <si>
-    <t>蔥抓餅 蛋 豬排(40$.)</t>
-  </si>
-  <si>
     <t>羊肉羹麵(55$.)</t>
   </si>
   <si>
@@ -298,36 +289,15 @@
     <t>無骨雞排+三副菜(55$.)</t>
   </si>
   <si>
-    <t>肉羹湯麵(40$.)</t>
-  </si>
-  <si>
     <t>0~5</t>
   </si>
   <si>
-    <t>蛋包飯 豬排(55$.)</t>
-  </si>
-  <si>
-    <t>8~14</t>
-  </si>
-  <si>
     <t>2~8</t>
   </si>
   <si>
-    <t>蛋包飯(40$.)</t>
-  </si>
-  <si>
-    <t>14~20</t>
-  </si>
-  <si>
-    <t>日式魚排 雞塊 三副菜(55$.)</t>
-  </si>
-  <si>
     <t>0~6</t>
   </si>
   <si>
-    <t>5~11</t>
-  </si>
-  <si>
     <t>紅燒牛肉飯 三副菜(55$.)</t>
   </si>
   <si>
@@ -479,6 +449,48 @@
   </si>
   <si>
     <t>張君雅泡乾麵+蛋+青菜(40$.)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1-飯食部)</t>
+  </si>
+  <si>
+    <t>34~34</t>
+  </si>
+  <si>
+    <t>台灣小吃部(3-麵食部)</t>
+  </si>
+  <si>
+    <t>39~39</t>
+  </si>
+  <si>
+    <t>台灣小吃部(2-焗烤部)</t>
+  </si>
+  <si>
+    <t>53~53</t>
+  </si>
+  <si>
+    <t>合作社(17-素食部)</t>
+  </si>
+  <si>
+    <t>4~4</t>
+  </si>
+  <si>
+    <t>愛佳便當(9-飯食部)</t>
+  </si>
+  <si>
+    <t>20~20</t>
+  </si>
+  <si>
+    <t>愛佳便當(10-麵食部)</t>
+  </si>
+  <si>
+    <t>3~3</t>
+  </si>
+  <si>
+    <t>關東煮(13-關東煮)</t>
+  </si>
+  <si>
+    <t>0~0</t>
   </si>
 </sst>
 </file>
@@ -853,79 +865,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1">
-        <v>0.98</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1">
-        <v>0.88</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1">
-        <v>0.83</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -933,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1">
         <v>0.97</v>
@@ -944,7 +956,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>0.99</v>
@@ -952,10 +964,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -963,10 +975,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -974,10 +986,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1">
         <v>0.91</v>
@@ -985,10 +997,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>0.99</v>
@@ -996,10 +1008,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1">
         <v>0.99</v>
@@ -1007,10 +1019,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1018,10 +1030,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>0.99</v>
@@ -1029,10 +1041,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>0.99</v>
@@ -1040,10 +1052,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1">
         <v>0.99</v>
@@ -1051,10 +1063,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1062,10 +1074,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1073,10 +1085,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1084,10 +1096,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
         <v>0.96</v>
@@ -1098,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>0.98</v>
@@ -1109,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1">
         <v>0.98</v>
@@ -1117,10 +1129,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1">
         <v>0.98</v>
@@ -1131,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1142,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1153,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1164,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1172,10 +1184,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1186,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1194,10 +1206,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>0.99</v>
@@ -1205,10 +1217,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1216,10 +1228,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1">
         <v>0.99</v>
@@ -1227,10 +1239,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1">
         <v>0.99</v>
@@ -1238,10 +1250,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1249,10 +1261,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1">
         <v>0.99</v>
@@ -1263,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1274,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1282,10 +1294,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1293,10 +1305,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1304,10 +1316,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1">
         <v>0.98</v>
@@ -1315,10 +1327,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1326,10 +1338,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1337,10 +1349,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1">
         <v>0.99</v>
@@ -1351,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1359,10 +1371,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>0.98</v>
@@ -1370,10 +1382,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1384,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1">
         <v>0.98</v>
@@ -1392,10 +1404,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1403,10 +1415,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1417,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1425,10 +1437,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1436,10 +1448,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1447,10 +1459,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1461,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1469,10 +1481,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1">
         <v>0.98</v>
@@ -1480,10 +1492,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1491,10 +1503,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1502,10 +1514,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1513,10 +1525,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1524,10 +1536,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1535,10 +1547,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1546,10 +1558,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1557,10 +1569,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1571,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C67" s="1">
         <v>0.99</v>
@@ -1579,10 +1591,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1590,10 +1602,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1604,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1612,10 +1624,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1626,7 +1638,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1637,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1">
         <v>0.99</v>
@@ -1645,10 +1657,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -1656,10 +1668,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -1667,10 +1679,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -1681,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -1689,10 +1701,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -1703,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1">
         <v>0.99</v>
@@ -1714,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -1725,7 +1737,7 @@
         <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -1736,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1">
         <v>0.99</v>
@@ -1747,7 +1759,7 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -1758,7 +1770,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -1769,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -1780,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -1791,7 +1803,7 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -1802,7 +1814,7 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -1813,7 +1825,7 @@
         <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -1824,7 +1836,7 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -1835,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -1846,7 +1858,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -1857,7 +1869,7 @@
         <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -1865,10 +1877,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -1876,10 +1888,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -1887,10 +1899,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -1898,10 +1910,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -1909,10 +1921,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -1920,10 +1932,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -1931,10 +1943,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -1942,10 +1954,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -1953,10 +1965,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -1964,10 +1976,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -1975,10 +1987,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -1986,10 +1998,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -1997,10 +2009,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -2008,10 +2020,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -2019,10 +2031,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -2030,10 +2042,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -2041,10 +2053,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -2052,10 +2064,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -2063,10 +2075,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -2074,10 +2086,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -2085,10 +2097,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -2096,10 +2108,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -2107,10 +2119,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -2118,10 +2130,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -2129,10 +2141,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -2140,10 +2152,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -2151,10 +2163,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -2162,10 +2174,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -2173,10 +2185,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -2184,10 +2196,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -2195,10 +2207,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -2206,10 +2218,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -2217,10 +2229,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -2228,10 +2240,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -2239,10 +2251,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -2250,10 +2262,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -2261,10 +2273,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -2272,10 +2284,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -2283,10 +2295,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -2294,10 +2306,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -2305,10 +2317,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -2316,10 +2328,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -2327,10 +2339,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -2338,10 +2350,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -2349,10 +2361,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -2360,10 +2372,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -2371,10 +2383,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -2382,10 +2394,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -2393,10 +2405,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -2404,10 +2416,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>

--- a/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB30273-360E-4BF9-9201-0112ED18ECCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="990" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,49 +43,49 @@
     <t>台灣小吃部(3-麵食部)</t>
   </si>
   <si>
-    <t>[61, 63]</t>
+    <t>[94, 94]</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1-飯食部)</t>
+  </si>
+  <si>
+    <t>[77, 77]</t>
   </si>
   <si>
     <t>台灣小吃部(2-焗烤部)</t>
   </si>
   <si>
-    <t>[89, 93]</t>
-  </si>
-  <si>
-    <t>台灣小吃部(1-飯食部)</t>
-  </si>
-  <si>
-    <t>[54, 56]</t>
+    <t>[108, 108]</t>
   </si>
   <si>
     <t>愛佳便當(9-飯食部)</t>
   </si>
   <si>
-    <t>[15, 15]</t>
+    <t>[25, 25]</t>
   </si>
   <si>
     <t>愛佳便當(10-麵食部)</t>
   </si>
   <si>
+    <t>[12, 12]</t>
+  </si>
+  <si>
+    <t>合作社(17-素食部)</t>
+  </si>
+  <si>
     <t>[6, 6]</t>
   </si>
   <si>
-    <t>合作社(17-素食部)</t>
-  </si>
-  <si>
-    <t>[5, 5]</t>
-  </si>
-  <si>
     <t>總和</t>
   </si>
   <si>
-    <t>[229, 243]</t>
+    <t>[324, 324]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -118,7 +127,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -134,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,6 +218,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,17 +462,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -457,13 +500,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>62</v>
-      </c>
-      <c r="E2">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,13 +514,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -491,13 +528,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -508,13 +542,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -525,13 +556,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -542,12 +570,9 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
         <v>6</v>
       </c>
     </row>
@@ -559,14 +584,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="D8">
-        <v>236</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
-        <v>231</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Debug/輸出模型.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB30273-360E-4BF9-9201-0112ED18ECCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2412D-18D1-4A04-9C57-6D7D68EA9A7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>餐點名</t>
   </si>
@@ -38,48 +38,6 @@
   </si>
   <si>
     <t>實際資料</t>
-  </si>
-  <si>
-    <t>台灣小吃部(3-麵食部)</t>
-  </si>
-  <si>
-    <t>[94, 94]</t>
-  </si>
-  <si>
-    <t>台灣小吃部(1-飯食部)</t>
-  </si>
-  <si>
-    <t>[77, 77]</t>
-  </si>
-  <si>
-    <t>台灣小吃部(2-焗烤部)</t>
-  </si>
-  <si>
-    <t>[108, 108]</t>
-  </si>
-  <si>
-    <t>愛佳便當(9-飯食部)</t>
-  </si>
-  <si>
-    <t>[25, 25]</t>
-  </si>
-  <si>
-    <t>愛佳便當(10-麵食部)</t>
-  </si>
-  <si>
-    <t>[12, 12]</t>
-  </si>
-  <si>
-    <t>合作社(17-素食部)</t>
-  </si>
-  <si>
-    <t>[6, 6]</t>
-  </si>
-  <si>
-    <t>總和</t>
-  </si>
-  <si>
-    <t>[324, 324]</t>
   </si>
 </sst>
 </file>
@@ -493,102 +451,25 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>94</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D3">
-        <v>77</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D4">
-        <v>108</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D8">
-        <v>324</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1"/>
